--- a/XLSX/VVK_EIR_s1_NSIK_12_AS.xlsx
+++ b/XLSX/VVK_EIR_s1_NSIK_12_AS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="213">
   <si>
     <t xml:space="preserve">Komponento pavadinimas pagal NSIK klasifikatorių</t>
   </si>
@@ -31,37 +31,37 @@
     <t xml:space="preserve">Pavadinimas</t>
   </si>
   <si>
+    <t xml:space="preserve">Modeliuojamų elementų pavyzdžiai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFC tipas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pastabos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pateikiama informacija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJEKTO DALIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcinės sistemos kodas - ClassificationSystem.NSIK LF arba „NSIK LF“ klasifikatorius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techninės sistemos kodas - ClassificationSystem.NSIK LT arba „NSIK LT“ klasifikatorius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komponento kodas - ClassificationSystemNSIK LK arba „NSIK LK“ klasifikatorius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erdvės kodas - ClassificationSystem.NSIK B arba „NSIK B“ klasifikatorius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statinio kodas - ClassificationSystem.NSIK E arba „NSIK E“ klasifikatorius</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elemento aprašymas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modeliuojamų elementų pavyzdžiai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFC tipas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastabos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOD Pateikiama informacija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROJEKTO DALIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funkcinės sistemos kodas - ClassificationSystem.NSIK LF arba „NSIK LF“ klasifikatorius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Techninės sistemos kodas - ClassificationSystem.NSIK LT arba „NSIK LT“ klasifikatorius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komponento kodas - ClassificationSystemNSIK LK arba „NSIK LK“ klasifikatorius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erdvės kodas - ClassificationSystem.NSIK B arba „NSIK B“ klasifikatorius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statinio kodas - ClassificationSystem.NSIK E arba „NSIK E“ klasifikatorius</t>
   </si>
   <si>
     <t xml:space="preserve">Esama situacija 
@@ -109,25 +109,25 @@
   </si>
   <si>
     <t xml:space="preserve">Atviras dėklas, 
+kabelio vielinis lovelis, 
+įrangą laikanti konstrukcija, 
+laidų dėklas, 
+vamzdžių dėklas, 
+kabelio lovelis, 
+kabelių kanalas, 
+kabelio kopėčios, 
+laido kanalas, 
 uždaras dėklas, 
+ryšio kabelių lovys, 
+vamzdžių kanalas, 
+įrangos dėklas, 
+įrenginių dėklas, 
 kabelių laikiklis, 
 laidų kanalas, 
+kabelio kanalas, 
+Kabelio kanalas, 
 įrangos laikiklis, 
-laidų dėklas, 
-kabelio lovelis, 
-kabelių kanalas, 
-įrenginių dėklas, 
-įrangą laikanti konstrukcija, 
-įrangos dėklas, 
-vamzdžių dėklas, 
-kabelio kopėčios, 
-ryšio kabelių lovys, 
-kabelio vielinis lovelis, 
-instaliacinis vamzdis, 
-Kabelio kanalas, 
-laido kanalas, 
-kabelio kanalas, 
-vamzdžių kanalas</t>
+instaliacinis vamzdis</t>
   </si>
   <si>
     <t xml:space="preserve">IfcFlowSegment, 
@@ -246,18 +246,18 @@
     <t xml:space="preserve">Elektrinis signalo apdorojimo komponentas, skirtas prietaisams valdyti be žmogaus įsikišimo.</t>
   </si>
   <si>
-    <t xml:space="preserve">nuotolinis apsaugos ir valdymo blokas, 
-Kontroleris, 
+    <t xml:space="preserve">Centrinis procesorius (CPU - angl. central processing unit), 
+Durų kontroleris, 
+nuotolinis terminalas (RTU - angl. remote terminal unit), 
 Praėjimo vartelių Kontroleris, 
+Kortelių skaitytuvo kontroleris, 
 sinchronizavimo relė, 
 nuotolinio televaldymo blokas (RTU - angl. remote telecontrol unit), 
-Kortelių skaitytuvo kontroleris, 
-nuotolinis terminalas (RTU - angl. remote terminal unit), 
-Centrinis procesorius (CPU - angl. central processing unit), 
 Valdiklis, 
-sinchronizatorius, 
+nuotolinis apsaugos ir valdymo blokas, 
+Kontroleris, 
 programuojamas loginis valdiklis (PLC - angl. programmable logic controller), 
-Durų kontroleris</t>
+sinchronizatorius</t>
   </si>
   <si>
     <t xml:space="preserve">IfcDistributionControlElement, 
@@ -316,11 +316,11 @@
     <t xml:space="preserve">Sąveikos komponentas, valdomas spaudžiant pirštu.</t>
   </si>
   <si>
-    <t xml:space="preserve">klavišas, 
-įspaudžiamas jungiklis, 
+    <t xml:space="preserve">įspaudžiamas jungiklis, 
 įspaudžiamas mygtukas, 
-Klaviatūra, 
-Pavojaus mygtukas</t>
+klavišas, 
+Pavojaus mygtukas, 
+Klaviatūra</t>
   </si>
   <si>
     <t xml:space="preserve">IfcSensor, 
@@ -371,19 +371,19 @@
     <t xml:space="preserve">Gaubtas, skirtas mechanizmams ar jų dalims apsaugoti nuo išorinio poveikio bei užtikrinti žmonių saugumą (taip pat ir nuo kontakto su elektros srove).</t>
   </si>
   <si>
-    <t xml:space="preserve">sensorių dėžutė, 
-spintelė, 
+    <t xml:space="preserve">spintelė, 
 paskirstymo skydelis, 
+montavimo dėžė, 
+elektros skydelis, 
+kolektorių spintelė, 
+elektros spinta, 
 saugos dėžutė, 
-montavimo dėžė, 
-Automatikos spinta, 
-kolektorių spintelė, 
-Prietaisų dėžė, 
-prietaisų dėžė, 
 Centralė, 
 skydinė, 
-elektros skydelis, 
-elektros spinta</t>
+Prietaisų dėžė, 
+sensorių dėžutė, 
+prietaisų dėžė, 
+Automatikos spinta</t>
   </si>
   <si>
     <t xml:space="preserve">Judesio daviklis</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">Padėties jungiklis judesiui nustatyti.</t>
   </si>
   <si>
-    <t xml:space="preserve">judesio jutiklis, 
-PIR, 
+    <t xml:space="preserve">PIR daviklis, 
+judesio jutiklis, 
 Judesio detektorius, 
-PIR daviklis</t>
+PIR</t>
   </si>
   <si>
     <t xml:space="preserve">Akselerometro daviklis</t>
@@ -414,8 +414,8 @@
   </si>
   <si>
     <t xml:space="preserve">Seisminis jutiklis, 
-Smūgio daviklis, 
-Seisminis daviklis</t>
+Seisminis daviklis, 
+Smūgio daviklis</t>
   </si>
   <si>
     <t xml:space="preserve">Stiklo dūžio daviklis</t>
@@ -465,12 +465,12 @@
     <t xml:space="preserve">Spinduliuotės jutimo komponentas su skaliariniu išėjimu, skirtas neregimosioms elektromagnetinėms bangoms matuoti.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gama spinduliuotės detektorius, 
+    <t xml:space="preserve">ir jutiklis, 
+ultravioletinių spindulių jutiklis, 
+Gama spinduliuotės detektorius, 
+UV jutiklis, 
+radarinis jutiklis, 
 Šiluminis daviklis, 
-ir jutiklis, 
-radarinis jutiklis, 
-UV jutiklis, 
-ultravioletinių spindulių jutiklis, 
 infraraudonųjų spindulių jutiklis</t>
   </si>
   <si>
@@ -486,10 +486,10 @@
     <t xml:space="preserve">Magnetinio lauko jutimo komponentas su loginiu išėjimu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Relė su sandariaisisias magnetiniais kontaktais, 
+    <t xml:space="preserve">Magnetinis kontaktas, 
+herkonas, 
 sandarusis magnetinis jungiklis, 
-herkonas, 
-Magnetinis kontaktas</t>
+Relė su sandariaisisias magnetiniais kontaktais</t>
   </si>
   <si>
     <t xml:space="preserve">Garsiakalbis</t>
@@ -505,8 +505,8 @@
   </si>
   <si>
     <t xml:space="preserve">Apsaugos signalizacijos blykstė, 
-Garso kolonėlė, 
-sirena</t>
+sirena, 
+Garso kolonėlė</t>
   </si>
   <si>
     <t xml:space="preserve">IfcLamp, 
@@ -551,13 +551,13 @@
     <t xml:space="preserve">Informacijos jutimo komponentas, naudojantis elektromagnetinį lauką.</t>
   </si>
   <si>
-    <t xml:space="preserve">magnetinės juostos skaitytuvas, 
-radijo dažnio identifikavimo skaitytuvas (RFID - angl. radio frequency identification), 
-RFID skaitytuvas, 
-Juostos skaitytuvas, 
+    <t xml:space="preserve">Juostos skaitytuvas, 
 Nuotolinis kortelių skaitytuvas, 
 RFC skaitytuvas, 
-radijo dažnio kortelės skaitytuvas (RFC - angl. radio frequency card)</t>
+magnetinės juostos skaitytuvas, 
+RFID skaitytuvas, 
+radijo dažnio kortelės skaitytuvas (RFC - angl. radio frequency card), 
+radijo dažnio identifikavimo skaitytuvas (RFID - angl. radio frequency identification)</t>
   </si>
   <si>
     <t xml:space="preserve">Skaitytuvai, nepatenkantys į RFID ir NFC technologijas</t>
@@ -575,9 +575,9 @@
     <t xml:space="preserve">Elektromagnetinis skaitytuvas, naudojantis artimojo lauko ryšį.</t>
   </si>
   <si>
-    <t xml:space="preserve">NFC skaitytuvas, 
+    <t xml:space="preserve">Mifare skaitytuvas, 
 Artimojo lauko ryšio skaitytuvas, 
-Mifare skaitytuvas</t>
+NFC skaitytuvas</t>
   </si>
   <si>
     <t xml:space="preserve">RFID skaitytuvas</t>
@@ -605,12 +605,12 @@
     <t xml:space="preserve">Informacijos jutimo komponentas, naudojantis šviesą.</t>
   </si>
   <si>
-    <t xml:space="preserve">optinio disko skaitytuvas, 
-Akies rainelės skaitytuvas, 
+    <t xml:space="preserve">Akies rainelės skaitytuvas, 
+optinio disko skaitytuvas, 
 QR skaitytuvas, 
-greito atsako kodo (QR - angl. quick responce) skaitytuvas, 
+Brūkšninio kodo skaitytuvas, 
 QR kodų skeneris, 
-Brūkšninio kodo skaitytuvas</t>
+greito atsako kodo (QR - angl. quick responce) skaitytuvas</t>
   </si>
   <si>
     <t xml:space="preserve">Lustų skaitytuvas</t>
@@ -625,9 +625,9 @@
     <t xml:space="preserve">Informacijos jutimo komponentas, naudojantis elektrinį sujungimą.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dallas-key skaitytuvas, 
-Lustinės kortelės skaitytuvas, 
-Lustų skaitytuvas</t>
+    <t xml:space="preserve">Lustinės kortelės skaitytuvas, 
+Lustų skaitytuvas, 
+Dallas-key skaitytuvas</t>
   </si>
   <si>
     <t xml:space="preserve">Elektromagnetas</t>
@@ -661,15 +661,15 @@
     <t xml:space="preserve">Vaizdinis garso ir vaizdo jutimo komponentas su skaliariniu išėjimu, skirtas regimajam vaizdui matuoti.</t>
   </si>
   <si>
-    <t xml:space="preserve">vaizdo kamera, 
+    <t xml:space="preserve">Kupolinė kamera, 
+vaizdo kamera, 
 Vaizdo kamera, 
-Kupolinė kamera, 
+uždaroji televizija (CCTV - angl. closed-circuit television), 
+Kamera, 
+Vaizdo makera su pašvietimu, 
 Valdoma kamera, 
-uždaroji televizija (CCTV - angl. closed-circuit television), 
-valdoma stebėjimo kamera (PTZ - angl. pan-tilt-zoom), 
-Vaizdo makera su pašvietimu, 
 skeneris, 
-Kamera</t>
+valdoma stebėjimo kamera (PTZ - angl. pan-tilt-zoom)</t>
   </si>
   <si>
     <t xml:space="preserve">Valdymo pultas</t>
@@ -684,11 +684,11 @@
     <t xml:space="preserve">Daugialypis interaktyvus įrenginys, apimantis rankines priemones.</t>
   </si>
   <si>
-    <t xml:space="preserve">Žaidimų konsolės įvesties įrenginys "joypad", 
+    <t xml:space="preserve">žaidimų valdiklis, 
 žaidimų skydelis, 
-žaidimų valdiklis, 
-Vaizdo kamerų valdymo pultas, 
-PTZ pultas</t>
+Žaidimų konsolės įvesties įrenginys "joypad", 
+PTZ pultas, 
+Vaizdo kamerų valdymo pultas</t>
   </si>
   <si>
     <t xml:space="preserve">Kortelių rašytuvas</t>
@@ -703,11 +703,11 @@
     <t xml:space="preserve">Elektrinio signalo apdorojimo komponentas, automatiškai išsaugantis kaupimo įrenginio įėjimo informaciją.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaizdo įrašymo irenginys, 
-optinių diskų rašytuvas, 
-kompaktinių diskų rašytuvas, 
+    <t xml:space="preserve">kompaktinių diskų rašytuvas, 
 Juostos rašytuvas, 
-DVR</t>
+Vaizdo įrašymo irenginys, 
+DVR, 
+optinių diskų rašytuvas</t>
   </si>
   <si>
     <t xml:space="preserve">Duomenų kabelio lizdas</t>
@@ -744,20 +744,20 @@
 Duomenų paskirstymo panelė</t>
   </si>
   <si>
-    <t xml:space="preserve">sensorių dėžutė, 
+    <t xml:space="preserve">Vaizdo kamerų sistemos įrenginių spinta, 
 spintelė, 
+paskirstymo skydelis, 
+elektros skydelis, 
+kolektorių spintelė, 
 Vaizdo kamerų sistemos spinta, 
-paskirstymo skydelis, 
+elektros spinta, 
 saugos dėžutė, 
-montavimo dėžė, 
-prietaisų dėžė, 
-kolektorių spintelė, 
+Vaizdo kamerų dėžė, 
 Centralė, 
 skydinė, 
-Vaizdo kamerų sistemos įrenginių spinta, 
-Vaizdo kamerų dėžė, 
-elektros spinta, 
-elektros skydelis</t>
+montavimo dėžė, 
+sensorių dėžutė, 
+prietaisų dėžė</t>
   </si>
   <si>
     <t xml:space="preserve">Elektros skirstytuvas</t>
@@ -769,10 +769,10 @@
     <t xml:space="preserve">Žemosios įtampos jungiamasis komponentas, skirtas keletui kištukinių srovę naudojančių įrenginių.</t>
   </si>
   <si>
-    <t xml:space="preserve">Elektros šakotuvas vaizdo kamerų sistemai, 
-Ilgintuvas, 
+    <t xml:space="preserve">Ilgintuvas, 
+Elektros šakotuvas vaizdo kamerų sistemai, 
+"prailgintuvas", 
 Vaizdo kamerų sistemos elektros šakotuvas, 
-"prailgintuvas", 
 elektros šakotuvas</t>
   </si>
   <si>
@@ -785,8 +785,8 @@
     <t xml:space="preserve">Elektros energijos stabilizavimo komponentas, užtikrinantis nenutrūkstamą energijos tiekimą.</t>
   </si>
   <si>
-    <t xml:space="preserve">UPS (angl. uninterrupted power supply), 
-Vaizdo kamerų nepertraukiamo maitinimo šaltinis, 
+    <t xml:space="preserve">Vaizdo kamerų nepertraukiamo maitinimo šaltinis, 
+UPS (angl. uninterrupted power supply), 
 Vaizdo kamerų UPS</t>
   </si>
   <si>
@@ -1323,15 +1323,15 @@
   </sheetPr>
   <dimension ref="A1:T592"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="12" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V7" activeCellId="0" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="10"/>
@@ -1363,20 +1363,18 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1386,39 +1384,33 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="124.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1441,7 +1433,7 @@
         <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -1463,7 +1455,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="5" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1529,7 +1521,7 @@
       </c>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="6" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1553,7 +1545,7 @@
       </c>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="7" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1577,7 +1569,7 @@
       </c>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1601,7 +1593,7 @@
       </c>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1625,7 +1617,7 @@
       </c>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="10" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1649,7 +1641,7 @@
       </c>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1673,7 +1665,7 @@
       </c>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1697,7 +1689,7 @@
       </c>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1721,7 +1713,7 @@
       </c>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1745,7 +1737,7 @@
       </c>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1769,7 +1761,7 @@
       </c>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1793,7 +1785,7 @@
       </c>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1817,7 +1809,7 @@
       </c>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1835,7 +1827,7 @@
       </c>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1853,7 +1845,7 @@
       </c>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1868,7 +1860,7 @@
       <c r="L20" s="5"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1912,7 +1904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1936,7 +1928,7 @@
       </c>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="23" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1960,7 +1952,7 @@
       </c>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1984,7 +1976,7 @@
       </c>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="25" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2008,7 +2000,7 @@
       </c>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="26" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2032,7 +2024,7 @@
       </c>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2056,7 +2048,7 @@
       </c>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="28" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2080,7 +2072,7 @@
       </c>
       <c r="T28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="29" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2104,7 +2096,7 @@
       </c>
       <c r="T29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="30" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2128,7 +2120,7 @@
       </c>
       <c r="T30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="31" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2152,7 +2144,7 @@
       </c>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="32" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2176,7 +2168,7 @@
       </c>
       <c r="T32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2200,7 +2192,7 @@
       </c>
       <c r="T33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2224,7 +2216,7 @@
       </c>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2248,7 +2240,7 @@
       </c>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="36" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2272,7 +2264,7 @@
       </c>
       <c r="T36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2296,7 +2288,7 @@
       </c>
       <c r="T37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2320,7 +2312,7 @@
       </c>
       <c r="T38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2344,7 +2336,7 @@
       </c>
       <c r="T39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2362,7 +2354,7 @@
       </c>
       <c r="T40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2380,7 +2372,7 @@
       </c>
       <c r="T41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2395,7 +2387,7 @@
       <c r="L42" s="5"/>
       <c r="T42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>82</v>
       </c>
@@ -2437,7 +2429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="44" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2461,7 +2453,7 @@
       </c>
       <c r="T44" s="9"/>
     </row>
-    <row r="45" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="45" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2485,7 +2477,7 @@
       </c>
       <c r="T45" s="9"/>
     </row>
-    <row r="46" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="46" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2509,7 +2501,7 @@
       </c>
       <c r="T46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="47" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2533,7 +2525,7 @@
       </c>
       <c r="T47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="48" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2557,7 +2549,7 @@
       </c>
       <c r="T48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="49" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2581,7 +2573,7 @@
       </c>
       <c r="T49" s="9"/>
     </row>
-    <row r="50" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="50" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2605,7 +2597,7 @@
       </c>
       <c r="T50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2629,7 +2621,7 @@
       </c>
       <c r="T51" s="9"/>
     </row>
-    <row r="52" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2653,7 +2645,7 @@
       </c>
       <c r="T52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2677,7 +2669,7 @@
       </c>
       <c r="T53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="54" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2701,7 +2693,7 @@
       </c>
       <c r="T54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="55" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2725,7 +2717,7 @@
       </c>
       <c r="T55" s="9"/>
     </row>
-    <row r="56" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="56" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2749,7 +2741,7 @@
       </c>
       <c r="T56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2773,7 +2765,7 @@
       </c>
       <c r="T57" s="9"/>
     </row>
-    <row r="58" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="58" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2797,7 +2789,7 @@
       </c>
       <c r="T58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2815,7 +2807,7 @@
       </c>
       <c r="T59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2833,7 +2825,7 @@
       </c>
       <c r="T60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2848,7 +2840,7 @@
       <c r="L61" s="5"/>
       <c r="T61" s="9"/>
     </row>
-    <row r="62" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>88</v>
       </c>
@@ -2890,7 +2882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="63" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2914,7 +2906,7 @@
       </c>
       <c r="T63" s="9"/>
     </row>
-    <row r="64" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="64" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2938,7 +2930,7 @@
       </c>
       <c r="T64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="65" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2962,7 +2954,7 @@
       </c>
       <c r="T65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="66" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2986,7 +2978,7 @@
       </c>
       <c r="T66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="67" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -3010,7 +3002,7 @@
       </c>
       <c r="T67" s="9"/>
     </row>
-    <row r="68" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -3034,7 +3026,7 @@
       </c>
       <c r="T68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="69" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -3058,7 +3050,7 @@
       </c>
       <c r="T69" s="9"/>
     </row>
-    <row r="70" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -3082,7 +3074,7 @@
       </c>
       <c r="T70" s="9"/>
     </row>
-    <row r="71" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="71" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -3106,7 +3098,7 @@
       </c>
       <c r="T71" s="9"/>
     </row>
-    <row r="72" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="72" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -3130,7 +3122,7 @@
       </c>
       <c r="T72" s="9"/>
     </row>
-    <row r="73" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -3154,7 +3146,7 @@
       </c>
       <c r="T73" s="9"/>
     </row>
-    <row r="74" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3178,7 +3170,7 @@
       </c>
       <c r="T74" s="9"/>
     </row>
-    <row r="75" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3202,7 +3194,7 @@
       </c>
       <c r="T75" s="9"/>
     </row>
-    <row r="76" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="76" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3226,7 +3218,7 @@
       </c>
       <c r="T76" s="9"/>
     </row>
-    <row r="77" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="77" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3250,7 +3242,7 @@
       </c>
       <c r="T77" s="9"/>
     </row>
-    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3274,7 +3266,7 @@
       </c>
       <c r="T78" s="9"/>
     </row>
-    <row r="79" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3298,7 +3290,7 @@
       </c>
       <c r="T79" s="9"/>
     </row>
-    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="80" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3322,7 +3314,7 @@
       </c>
       <c r="T80" s="9"/>
     </row>
-    <row r="81" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3340,7 +3332,7 @@
       </c>
       <c r="T81" s="9"/>
     </row>
-    <row r="82" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3358,7 +3350,7 @@
       </c>
       <c r="T82" s="9"/>
     </row>
-    <row r="83" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3373,7 +3365,7 @@
       <c r="L83" s="5"/>
       <c r="T83" s="9"/>
     </row>
-    <row r="84" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>93</v>
       </c>
@@ -3415,7 +3407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="85" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3439,7 +3431,7 @@
       </c>
       <c r="T85" s="9"/>
     </row>
-    <row r="86" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="86" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3463,7 +3455,7 @@
       </c>
       <c r="T86" s="9"/>
     </row>
-    <row r="87" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="87" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3487,7 +3479,7 @@
       </c>
       <c r="T87" s="9"/>
     </row>
-    <row r="88" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3511,7 +3503,7 @@
       </c>
       <c r="T88" s="9"/>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="89" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3535,7 +3527,7 @@
       </c>
       <c r="T89" s="9"/>
     </row>
-    <row r="90" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="90" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3559,7 +3551,7 @@
       </c>
       <c r="T90" s="9"/>
     </row>
-    <row r="91" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="91" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3583,7 +3575,7 @@
       </c>
       <c r="T91" s="9"/>
     </row>
-    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="92" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3607,7 +3599,7 @@
       </c>
       <c r="T92" s="9"/>
     </row>
-    <row r="93" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3631,7 +3623,7 @@
       </c>
       <c r="T93" s="9"/>
     </row>
-    <row r="94" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3655,7 +3647,7 @@
       </c>
       <c r="T94" s="9"/>
     </row>
-    <row r="95" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3679,7 +3671,7 @@
       </c>
       <c r="T95" s="9"/>
     </row>
-    <row r="96" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="96" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3703,7 +3695,7 @@
       </c>
       <c r="T96" s="9"/>
     </row>
-    <row r="97" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3727,7 +3719,7 @@
       </c>
       <c r="T97" s="9"/>
     </row>
-    <row r="98" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3751,7 +3743,7 @@
       </c>
       <c r="T98" s="9"/>
     </row>
-    <row r="99" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3775,7 +3767,7 @@
       </c>
       <c r="T99" s="9"/>
     </row>
-    <row r="100" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3793,7 +3785,7 @@
       </c>
       <c r="T100" s="9"/>
     </row>
-    <row r="101" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3811,7 +3803,7 @@
       </c>
       <c r="T101" s="9"/>
     </row>
-    <row r="102" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3826,7 +3818,7 @@
       <c r="L102" s="5"/>
       <c r="T102" s="9"/>
     </row>
-    <row r="103" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A103" s="4" t="s">
         <v>98</v>
       </c>
@@ -3868,7 +3860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="104" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3892,7 +3884,7 @@
       </c>
       <c r="T104" s="9"/>
     </row>
-    <row r="105" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="105" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3916,7 +3908,7 @@
       </c>
       <c r="T105" s="9"/>
     </row>
-    <row r="106" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="106" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3940,7 +3932,7 @@
       </c>
       <c r="T106" s="9"/>
     </row>
-    <row r="107" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="107" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3964,7 +3956,7 @@
       </c>
       <c r="T107" s="9"/>
     </row>
-    <row r="108" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="108" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3988,7 +3980,7 @@
       </c>
       <c r="T108" s="9"/>
     </row>
-    <row r="109" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4012,7 +4004,7 @@
       </c>
       <c r="T109" s="9"/>
     </row>
-    <row r="110" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4036,7 +4028,7 @@
       </c>
       <c r="T110" s="9"/>
     </row>
-    <row r="111" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="111" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4060,7 +4052,7 @@
       </c>
       <c r="T111" s="9"/>
     </row>
-    <row r="112" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="112" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4084,7 +4076,7 @@
       </c>
       <c r="T112" s="9"/>
     </row>
-    <row r="113" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="113" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4108,7 +4100,7 @@
       </c>
       <c r="T113" s="9"/>
     </row>
-    <row r="114" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4132,7 +4124,7 @@
       </c>
       <c r="T114" s="9"/>
     </row>
-    <row r="115" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4156,7 +4148,7 @@
       </c>
       <c r="T115" s="9"/>
     </row>
-    <row r="116" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4180,7 +4172,7 @@
       </c>
       <c r="T116" s="9"/>
     </row>
-    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4204,7 +4196,7 @@
       </c>
       <c r="T117" s="9"/>
     </row>
-    <row r="118" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="118" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4228,7 +4220,7 @@
       </c>
       <c r="T118" s="9"/>
     </row>
-    <row r="119" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="119" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4252,7 +4244,7 @@
       </c>
       <c r="T119" s="9"/>
     </row>
-    <row r="120" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4276,7 +4268,7 @@
       </c>
       <c r="T120" s="9"/>
     </row>
-    <row r="121" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="121" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4300,7 +4292,7 @@
       </c>
       <c r="T121" s="9"/>
     </row>
-    <row r="122" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4318,7 +4310,7 @@
       </c>
       <c r="T122" s="9"/>
     </row>
-    <row r="123" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4336,7 +4328,7 @@
       </c>
       <c r="T123" s="9"/>
     </row>
-    <row r="124" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4351,7 +4343,7 @@
       <c r="L124" s="5"/>
       <c r="T124" s="9"/>
     </row>
-    <row r="125" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>103</v>
       </c>
@@ -4393,7 +4385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="126" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4417,7 +4409,7 @@
       </c>
       <c r="T126" s="9"/>
     </row>
-    <row r="127" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="127" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4441,7 +4433,7 @@
       </c>
       <c r="T127" s="9"/>
     </row>
-    <row r="128" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="128" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4465,7 +4457,7 @@
       </c>
       <c r="T128" s="9"/>
     </row>
-    <row r="129" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="129" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4489,7 +4481,7 @@
       </c>
       <c r="T129" s="9"/>
     </row>
-    <row r="130" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="130" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4513,7 +4505,7 @@
       </c>
       <c r="T130" s="9"/>
     </row>
-    <row r="131" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="131" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4537,7 +4529,7 @@
       </c>
       <c r="T131" s="9"/>
     </row>
-    <row r="132" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="132" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4561,7 +4553,7 @@
       </c>
       <c r="T132" s="9"/>
     </row>
-    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="133" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4585,7 +4577,7 @@
       </c>
       <c r="T133" s="9"/>
     </row>
-    <row r="134" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4609,7 +4601,7 @@
       </c>
       <c r="T134" s="9"/>
     </row>
-    <row r="135" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4633,7 +4625,7 @@
       </c>
       <c r="T135" s="9"/>
     </row>
-    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="136" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4657,7 +4649,7 @@
       </c>
       <c r="T136" s="9"/>
     </row>
-    <row r="137" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="137" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4681,7 +4673,7 @@
       </c>
       <c r="T137" s="9"/>
     </row>
-    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="138" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4705,7 +4697,7 @@
       </c>
       <c r="T138" s="9"/>
     </row>
-    <row r="139" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4729,7 +4721,7 @@
       </c>
       <c r="T139" s="9"/>
     </row>
-    <row r="140" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="140" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4753,7 +4745,7 @@
       </c>
       <c r="T140" s="9"/>
     </row>
-    <row r="141" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4771,7 +4763,7 @@
       </c>
       <c r="T141" s="9"/>
     </row>
-    <row r="142" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4789,7 +4781,7 @@
       </c>
       <c r="T142" s="9"/>
     </row>
-    <row r="143" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4804,7 +4796,7 @@
       <c r="L143" s="5"/>
       <c r="T143" s="9"/>
     </row>
-    <row r="144" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A144" s="4" t="s">
         <v>107</v>
       </c>
@@ -4846,7 +4838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4870,7 +4862,7 @@
       </c>
       <c r="T145" s="9"/>
     </row>
-    <row r="146" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="146" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4894,7 +4886,7 @@
       </c>
       <c r="T146" s="9"/>
     </row>
-    <row r="147" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="147" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4918,7 +4910,7 @@
       </c>
       <c r="T147" s="9"/>
     </row>
-    <row r="148" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="148" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4942,7 +4934,7 @@
       </c>
       <c r="T148" s="9"/>
     </row>
-    <row r="149" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="149" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4966,7 +4958,7 @@
       </c>
       <c r="T149" s="9"/>
     </row>
-    <row r="150" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="150" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4990,7 +4982,7 @@
       </c>
       <c r="T150" s="9"/>
     </row>
-    <row r="151" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="151" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5014,7 +5006,7 @@
       </c>
       <c r="T151" s="9"/>
     </row>
-    <row r="152" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="152" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5038,7 +5030,7 @@
       </c>
       <c r="T152" s="9"/>
     </row>
-    <row r="153" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5062,7 +5054,7 @@
       </c>
       <c r="T153" s="9"/>
     </row>
-    <row r="154" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5086,7 +5078,7 @@
       </c>
       <c r="T154" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="155" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5110,7 +5102,7 @@
       </c>
       <c r="T155" s="9"/>
     </row>
-    <row r="156" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="156" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5134,7 +5126,7 @@
       </c>
       <c r="T156" s="9"/>
     </row>
-    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="157" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5158,7 +5150,7 @@
       </c>
       <c r="T157" s="9"/>
     </row>
-    <row r="158" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5182,7 +5174,7 @@
       </c>
       <c r="T158" s="9"/>
     </row>
-    <row r="159" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="159" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5206,7 +5198,7 @@
       </c>
       <c r="T159" s="9"/>
     </row>
-    <row r="160" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5224,7 +5216,7 @@
       </c>
       <c r="T160" s="9"/>
     </row>
-    <row r="161" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5242,7 +5234,7 @@
       </c>
       <c r="T161" s="9"/>
     </row>
-    <row r="162" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5257,7 +5249,7 @@
       <c r="L162" s="5"/>
       <c r="T162" s="9"/>
     </row>
-    <row r="163" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A163" s="4" t="s">
         <v>112</v>
       </c>
@@ -5299,7 +5291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="164" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5323,7 +5315,7 @@
       </c>
       <c r="T164" s="9"/>
     </row>
-    <row r="165" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="165" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5347,7 +5339,7 @@
       </c>
       <c r="T165" s="9"/>
     </row>
-    <row r="166" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="166" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5371,7 +5363,7 @@
       </c>
       <c r="T166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="167" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5395,7 +5387,7 @@
       </c>
       <c r="T167" s="9"/>
     </row>
-    <row r="168" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="168" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5419,7 +5411,7 @@
       </c>
       <c r="T168" s="9"/>
     </row>
-    <row r="169" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="169" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5443,7 +5435,7 @@
       </c>
       <c r="T169" s="9"/>
     </row>
-    <row r="170" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="170" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5467,7 +5459,7 @@
       </c>
       <c r="T170" s="9"/>
     </row>
-    <row r="171" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="171" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5491,7 +5483,7 @@
       </c>
       <c r="T171" s="9"/>
     </row>
-    <row r="172" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5515,7 +5507,7 @@
       </c>
       <c r="T172" s="9"/>
     </row>
-    <row r="173" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5539,7 +5531,7 @@
       </c>
       <c r="T173" s="9"/>
     </row>
-    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="174" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5563,7 +5555,7 @@
       </c>
       <c r="T174" s="9"/>
     </row>
-    <row r="175" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="175" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5587,7 +5579,7 @@
       </c>
       <c r="T175" s="9"/>
     </row>
-    <row r="176" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="176" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5611,7 +5603,7 @@
       </c>
       <c r="T176" s="9"/>
     </row>
-    <row r="177" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5635,7 +5627,7 @@
       </c>
       <c r="T177" s="9"/>
     </row>
-    <row r="178" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="178" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5659,7 +5651,7 @@
       </c>
       <c r="T178" s="9"/>
     </row>
-    <row r="179" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5677,7 +5669,7 @@
       </c>
       <c r="T179" s="9"/>
     </row>
-    <row r="180" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5695,7 +5687,7 @@
       </c>
       <c r="T180" s="9"/>
     </row>
-    <row r="181" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5710,7 +5702,7 @@
       <c r="L181" s="5"/>
       <c r="T181" s="9"/>
     </row>
-    <row r="182" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A182" s="12"/>
       <c r="B182" s="5" t="s">
         <v>23</v>
@@ -5748,7 +5740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="183" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A183" s="12"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5772,7 +5764,7 @@
       </c>
       <c r="T183" s="9"/>
     </row>
-    <row r="184" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="184" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A184" s="12"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5796,7 +5788,7 @@
       </c>
       <c r="T184" s="9"/>
     </row>
-    <row r="185" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="185" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A185" s="12"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5820,7 +5812,7 @@
       </c>
       <c r="T185" s="9"/>
     </row>
-    <row r="186" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="186" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A186" s="12"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5844,7 +5836,7 @@
       </c>
       <c r="T186" s="9"/>
     </row>
-    <row r="187" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="187" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A187" s="12"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5868,7 +5860,7 @@
       </c>
       <c r="T187" s="9"/>
     </row>
-    <row r="188" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="188" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A188" s="12"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5892,7 +5884,7 @@
       </c>
       <c r="T188" s="9"/>
     </row>
-    <row r="189" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="189" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A189" s="12"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5916,7 +5908,7 @@
       </c>
       <c r="T189" s="9"/>
     </row>
-    <row r="190" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="190" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A190" s="12"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5940,7 +5932,7 @@
       </c>
       <c r="T190" s="9"/>
     </row>
-    <row r="191" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A191" s="12"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5964,7 +5956,7 @@
       </c>
       <c r="T191" s="9"/>
     </row>
-    <row r="192" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A192" s="12"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5988,7 +5980,7 @@
       </c>
       <c r="T192" s="9"/>
     </row>
-    <row r="193" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="193" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A193" s="12"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -6012,7 +6004,7 @@
       </c>
       <c r="T193" s="9"/>
     </row>
-    <row r="194" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="194" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A194" s="12"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -6036,7 +6028,7 @@
       </c>
       <c r="T194" s="9"/>
     </row>
-    <row r="195" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="195" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A195" s="12"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -6060,7 +6052,7 @@
       </c>
       <c r="T195" s="9"/>
     </row>
-    <row r="196" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A196" s="12"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -6084,7 +6076,7 @@
       </c>
       <c r="T196" s="9"/>
     </row>
-    <row r="197" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="197" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A197" s="12"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -6108,7 +6100,7 @@
       </c>
       <c r="T197" s="9"/>
     </row>
-    <row r="198" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A198" s="12"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -6126,7 +6118,7 @@
       </c>
       <c r="T198" s="9"/>
     </row>
-    <row r="199" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A199" s="12"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -6144,7 +6136,7 @@
       </c>
       <c r="T199" s="9"/>
     </row>
-    <row r="200" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A200" s="12"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -6159,7 +6151,7 @@
       <c r="L200" s="5"/>
       <c r="T200" s="9"/>
     </row>
-    <row r="201" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A201" s="4" t="s">
         <v>119</v>
       </c>
@@ -6201,7 +6193,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="202" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -6225,7 +6217,7 @@
       </c>
       <c r="T202" s="9"/>
     </row>
-    <row r="203" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="203" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -6249,7 +6241,7 @@
       </c>
       <c r="T203" s="9"/>
     </row>
-    <row r="204" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="204" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -6273,7 +6265,7 @@
       </c>
       <c r="T204" s="9"/>
     </row>
-    <row r="205" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="205" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -6297,7 +6289,7 @@
       </c>
       <c r="T205" s="9"/>
     </row>
-    <row r="206" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="206" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6321,7 +6313,7 @@
       </c>
       <c r="T206" s="9"/>
     </row>
-    <row r="207" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="207" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6345,7 +6337,7 @@
       </c>
       <c r="T207" s="9"/>
     </row>
-    <row r="208" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="208" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6369,7 +6361,7 @@
       </c>
       <c r="T208" s="9"/>
     </row>
-    <row r="209" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="209" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6393,7 +6385,7 @@
       </c>
       <c r="T209" s="9"/>
     </row>
-    <row r="210" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6417,7 +6409,7 @@
       </c>
       <c r="T210" s="9"/>
     </row>
-    <row r="211" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6441,7 +6433,7 @@
       </c>
       <c r="T211" s="9"/>
     </row>
-    <row r="212" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="212" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6465,7 +6457,7 @@
       </c>
       <c r="T212" s="9"/>
     </row>
-    <row r="213" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="213" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6489,7 +6481,7 @@
       </c>
       <c r="T213" s="9"/>
     </row>
-    <row r="214" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6513,7 +6505,7 @@
       </c>
       <c r="T214" s="9"/>
     </row>
-    <row r="215" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="215" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6537,7 +6529,7 @@
       </c>
       <c r="T215" s="9"/>
     </row>
-    <row r="216" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6555,7 +6547,7 @@
       </c>
       <c r="T216" s="9"/>
     </row>
-    <row r="217" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6573,7 +6565,7 @@
       </c>
       <c r="T217" s="9"/>
     </row>
-    <row r="218" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6588,7 +6580,7 @@
       <c r="L218" s="5"/>
       <c r="T218" s="9"/>
     </row>
-    <row r="219" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A219" s="4" t="s">
         <v>123</v>
       </c>
@@ -6630,7 +6622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="220" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6654,7 +6646,7 @@
       </c>
       <c r="T220" s="9"/>
     </row>
-    <row r="221" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="221" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6678,7 +6670,7 @@
       </c>
       <c r="T221" s="9"/>
     </row>
-    <row r="222" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="222" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6702,7 +6694,7 @@
       </c>
       <c r="T222" s="9"/>
     </row>
-    <row r="223" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="223" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6726,7 +6718,7 @@
       </c>
       <c r="T223" s="9"/>
     </row>
-    <row r="224" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="224" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6750,7 +6742,7 @@
       </c>
       <c r="T224" s="9"/>
     </row>
-    <row r="225" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6774,7 +6766,7 @@
       </c>
       <c r="T225" s="9"/>
     </row>
-    <row r="226" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6798,7 +6790,7 @@
       </c>
       <c r="T226" s="9"/>
     </row>
-    <row r="227" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="227" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6822,7 +6814,7 @@
       </c>
       <c r="T227" s="9"/>
     </row>
-    <row r="228" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="228" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6846,7 +6838,7 @@
       </c>
       <c r="T228" s="9"/>
     </row>
-    <row r="229" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="229" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6870,7 +6862,7 @@
       </c>
       <c r="T229" s="9"/>
     </row>
-    <row r="230" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6894,7 +6886,7 @@
       </c>
       <c r="T230" s="9"/>
     </row>
-    <row r="231" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="231" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6918,7 +6910,7 @@
       </c>
       <c r="T231" s="9"/>
     </row>
-    <row r="232" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6936,7 +6928,7 @@
       </c>
       <c r="T232" s="9"/>
     </row>
-    <row r="233" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6954,7 +6946,7 @@
       </c>
       <c r="T233" s="9"/>
     </row>
-    <row r="234" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A234" s="4"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6969,7 +6961,7 @@
       <c r="L234" s="5"/>
       <c r="T234" s="9"/>
     </row>
-    <row r="235" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A235" s="4" t="s">
         <v>128</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="236" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -7035,7 +7027,7 @@
       </c>
       <c r="T236" s="9"/>
     </row>
-    <row r="237" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="237" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -7059,7 +7051,7 @@
       </c>
       <c r="T237" s="9"/>
     </row>
-    <row r="238" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="238" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -7083,7 +7075,7 @@
       </c>
       <c r="T238" s="9"/>
     </row>
-    <row r="239" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="239" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -7107,7 +7099,7 @@
       </c>
       <c r="T239" s="9"/>
     </row>
-    <row r="240" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="240" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -7131,7 +7123,7 @@
       </c>
       <c r="T240" s="9"/>
     </row>
-    <row r="241" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="241" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -7155,7 +7147,7 @@
       </c>
       <c r="T241" s="9"/>
     </row>
-    <row r="242" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="242" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -7179,7 +7171,7 @@
       </c>
       <c r="T242" s="9"/>
     </row>
-    <row r="243" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="243" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -7203,7 +7195,7 @@
       </c>
       <c r="T243" s="9"/>
     </row>
-    <row r="244" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -7227,7 +7219,7 @@
       </c>
       <c r="T244" s="9"/>
     </row>
-    <row r="245" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -7251,7 +7243,7 @@
       </c>
       <c r="T245" s="9"/>
     </row>
-    <row r="246" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="246" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -7275,7 +7267,7 @@
       </c>
       <c r="T246" s="9"/>
     </row>
-    <row r="247" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="247" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -7299,7 +7291,7 @@
       </c>
       <c r="T247" s="9"/>
     </row>
-    <row r="248" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="248" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7323,7 +7315,7 @@
       </c>
       <c r="T248" s="9"/>
     </row>
-    <row r="249" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7347,7 +7339,7 @@
       </c>
       <c r="T249" s="9"/>
     </row>
-    <row r="250" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="250" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7371,7 +7363,7 @@
       </c>
       <c r="T250" s="9"/>
     </row>
-    <row r="251" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7389,7 +7381,7 @@
       </c>
       <c r="T251" s="9"/>
     </row>
-    <row r="252" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7407,7 +7399,7 @@
       </c>
       <c r="T252" s="9"/>
     </row>
-    <row r="253" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7422,7 +7414,7 @@
       <c r="L253" s="5"/>
       <c r="T253" s="9"/>
     </row>
-    <row r="254" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A254" s="4" t="s">
         <v>133</v>
       </c>
@@ -7464,7 +7456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="255" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7488,7 +7480,7 @@
       </c>
       <c r="T255" s="9"/>
     </row>
-    <row r="256" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="256" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7512,7 +7504,7 @@
       </c>
       <c r="T256" s="9"/>
     </row>
-    <row r="257" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="257" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7536,7 +7528,7 @@
       </c>
       <c r="T257" s="9"/>
     </row>
-    <row r="258" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="258" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7560,7 +7552,7 @@
       </c>
       <c r="T258" s="9"/>
     </row>
-    <row r="259" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="259" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7584,7 +7576,7 @@
       </c>
       <c r="T259" s="9"/>
     </row>
-    <row r="260" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7608,7 +7600,7 @@
       </c>
       <c r="T260" s="9"/>
     </row>
-    <row r="261" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="261" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7632,7 +7624,7 @@
       </c>
       <c r="T261" s="9"/>
     </row>
-    <row r="262" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="262" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7656,7 +7648,7 @@
       </c>
       <c r="T262" s="9"/>
     </row>
-    <row r="263" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="263" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7680,7 +7672,7 @@
       </c>
       <c r="T263" s="9"/>
     </row>
-    <row r="264" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="264" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7704,7 +7696,7 @@
       </c>
       <c r="T264" s="9"/>
     </row>
-    <row r="265" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="265" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7728,7 +7720,7 @@
       </c>
       <c r="T265" s="9"/>
     </row>
-    <row r="266" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7752,7 +7744,7 @@
       </c>
       <c r="T266" s="9"/>
     </row>
-    <row r="267" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7776,7 +7768,7 @@
       </c>
       <c r="T267" s="9"/>
     </row>
-    <row r="268" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="268" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7800,7 +7792,7 @@
       </c>
       <c r="T268" s="9"/>
     </row>
-    <row r="269" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="269" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7824,7 +7816,7 @@
       </c>
       <c r="T269" s="9"/>
     </row>
-    <row r="270" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="270" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7848,7 +7840,7 @@
       </c>
       <c r="T270" s="9"/>
     </row>
-    <row r="271" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7872,7 +7864,7 @@
       </c>
       <c r="T271" s="9"/>
     </row>
-    <row r="272" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="272" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7896,7 +7888,7 @@
       </c>
       <c r="T272" s="9"/>
     </row>
-    <row r="273" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7914,7 +7906,7 @@
       </c>
       <c r="T273" s="9"/>
     </row>
-    <row r="274" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7932,7 +7924,7 @@
       </c>
       <c r="T274" s="9"/>
     </row>
-    <row r="275" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7947,7 +7939,7 @@
       <c r="L275" s="5"/>
       <c r="T275" s="9"/>
     </row>
-    <row r="276" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A276" s="4" t="s">
         <v>139</v>
       </c>
@@ -7989,7 +7981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="277" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -8013,7 +8005,7 @@
       </c>
       <c r="T277" s="9"/>
     </row>
-    <row r="278" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="278" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -8037,7 +8029,7 @@
       </c>
       <c r="T278" s="9"/>
     </row>
-    <row r="279" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="279" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -8061,7 +8053,7 @@
       </c>
       <c r="T279" s="9"/>
     </row>
-    <row r="280" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="280" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -8085,7 +8077,7 @@
       </c>
       <c r="T280" s="9"/>
     </row>
-    <row r="281" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="281" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -8109,7 +8101,7 @@
       </c>
       <c r="T281" s="9"/>
     </row>
-    <row r="282" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -8133,7 +8125,7 @@
       </c>
       <c r="T282" s="9"/>
     </row>
-    <row r="283" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="283" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -8157,7 +8149,7 @@
       </c>
       <c r="T283" s="9"/>
     </row>
-    <row r="284" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="284" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -8181,7 +8173,7 @@
       </c>
       <c r="T284" s="9"/>
     </row>
-    <row r="285" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="285" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -8205,7 +8197,7 @@
       </c>
       <c r="T285" s="9"/>
     </row>
-    <row r="286" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="286" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -8229,7 +8221,7 @@
       </c>
       <c r="T286" s="9"/>
     </row>
-    <row r="287" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="287" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -8253,7 +8245,7 @@
       </c>
       <c r="T287" s="9"/>
     </row>
-    <row r="288" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -8277,7 +8269,7 @@
       </c>
       <c r="T288" s="9"/>
     </row>
-    <row r="289" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -8301,7 +8293,7 @@
       </c>
       <c r="T289" s="9"/>
     </row>
-    <row r="290" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="290" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -8325,7 +8317,7 @@
       </c>
       <c r="T290" s="9"/>
     </row>
-    <row r="291" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="291" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8349,7 +8341,7 @@
       </c>
       <c r="T291" s="9"/>
     </row>
-    <row r="292" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="292" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8373,7 +8365,7 @@
       </c>
       <c r="T292" s="9"/>
     </row>
-    <row r="293" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8397,7 +8389,7 @@
       </c>
       <c r="T293" s="9"/>
     </row>
-    <row r="294" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="294" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8421,7 +8413,7 @@
       </c>
       <c r="T294" s="9"/>
     </row>
-    <row r="295" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8439,7 +8431,7 @@
       </c>
       <c r="T295" s="9"/>
     </row>
-    <row r="296" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8457,7 +8449,7 @@
       </c>
       <c r="T296" s="9"/>
     </row>
-    <row r="297" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8472,7 +8464,7 @@
       <c r="L297" s="5"/>
       <c r="T297" s="9"/>
     </row>
-    <row r="298" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A298" s="12"/>
       <c r="B298" s="5" t="s">
         <v>23</v>
@@ -8510,7 +8502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="299" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A299" s="12"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8534,7 +8526,7 @@
       </c>
       <c r="T299" s="9"/>
     </row>
-    <row r="300" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="300" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A300" s="12"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8558,7 +8550,7 @@
       </c>
       <c r="T300" s="9"/>
     </row>
-    <row r="301" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="301" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A301" s="12"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8582,7 +8574,7 @@
       </c>
       <c r="T301" s="9"/>
     </row>
-    <row r="302" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="302" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A302" s="12"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8606,7 +8598,7 @@
       </c>
       <c r="T302" s="9"/>
     </row>
-    <row r="303" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="303" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A303" s="12"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -8630,7 +8622,7 @@
       </c>
       <c r="T303" s="9"/>
     </row>
-    <row r="304" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A304" s="12"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8654,7 +8646,7 @@
       </c>
       <c r="T304" s="9"/>
     </row>
-    <row r="305" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="305" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A305" s="12"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8678,7 +8670,7 @@
       </c>
       <c r="T305" s="9"/>
     </row>
-    <row r="306" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="306" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A306" s="12"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8702,7 +8694,7 @@
       </c>
       <c r="T306" s="9"/>
     </row>
-    <row r="307" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="307" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A307" s="12"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8726,7 +8718,7 @@
       </c>
       <c r="T307" s="9"/>
     </row>
-    <row r="308" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="308" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A308" s="12"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8750,7 +8742,7 @@
       </c>
       <c r="T308" s="9"/>
     </row>
-    <row r="309" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="309" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A309" s="12"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8774,7 +8766,7 @@
       </c>
       <c r="T309" s="9"/>
     </row>
-    <row r="310" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A310" s="12"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8798,7 +8790,7 @@
       </c>
       <c r="T310" s="9"/>
     </row>
-    <row r="311" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A311" s="12"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8822,7 +8814,7 @@
       </c>
       <c r="T311" s="9"/>
     </row>
-    <row r="312" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="312" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A312" s="12"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8846,7 +8838,7 @@
       </c>
       <c r="T312" s="9"/>
     </row>
-    <row r="313" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="313" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A313" s="12"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8870,7 +8862,7 @@
       </c>
       <c r="T313" s="9"/>
     </row>
-    <row r="314" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="314" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A314" s="12"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8894,7 +8886,7 @@
       </c>
       <c r="T314" s="9"/>
     </row>
-    <row r="315" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A315" s="12"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8918,7 +8910,7 @@
       </c>
       <c r="T315" s="9"/>
     </row>
-    <row r="316" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="316" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A316" s="12"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8942,7 +8934,7 @@
       </c>
       <c r="T316" s="9"/>
     </row>
-    <row r="317" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A317" s="12"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8960,7 +8952,7 @@
       </c>
       <c r="T317" s="9"/>
     </row>
-    <row r="318" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A318" s="12"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8978,7 +8970,7 @@
       </c>
       <c r="T318" s="9"/>
     </row>
-    <row r="319" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A319" s="12"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8993,7 +8985,7 @@
       <c r="L319" s="5"/>
       <c r="T319" s="9"/>
     </row>
-    <row r="320" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A320" s="4" t="s">
         <v>147</v>
       </c>
@@ -9037,7 +9029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="321" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -9061,7 +9053,7 @@
       </c>
       <c r="T321" s="9"/>
     </row>
-    <row r="322" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="322" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -9085,7 +9077,7 @@
       </c>
       <c r="T322" s="9"/>
     </row>
-    <row r="323" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="323" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -9109,7 +9101,7 @@
       </c>
       <c r="T323" s="9"/>
     </row>
-    <row r="324" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="324" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -9133,7 +9125,7 @@
       </c>
       <c r="T324" s="9"/>
     </row>
-    <row r="325" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="325" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -9157,7 +9149,7 @@
       </c>
       <c r="T325" s="9"/>
     </row>
-    <row r="326" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="326" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -9181,7 +9173,7 @@
       </c>
       <c r="T326" s="9"/>
     </row>
-    <row r="327" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="327" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -9205,7 +9197,7 @@
       </c>
       <c r="T327" s="9"/>
     </row>
-    <row r="328" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="328" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -9229,7 +9221,7 @@
       </c>
       <c r="T328" s="9"/>
     </row>
-    <row r="329" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -9253,7 +9245,7 @@
       </c>
       <c r="T329" s="9"/>
     </row>
-    <row r="330" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -9277,7 +9269,7 @@
       </c>
       <c r="T330" s="9"/>
     </row>
-    <row r="331" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="331" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -9301,7 +9293,7 @@
       </c>
       <c r="T331" s="9"/>
     </row>
-    <row r="332" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="332" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -9325,7 +9317,7 @@
       </c>
       <c r="T332" s="9"/>
     </row>
-    <row r="333" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="333" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -9349,7 +9341,7 @@
       </c>
       <c r="T333" s="9"/>
     </row>
-    <row r="334" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -9373,7 +9365,7 @@
       </c>
       <c r="T334" s="9"/>
     </row>
-    <row r="335" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="335" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9397,7 +9389,7 @@
       </c>
       <c r="T335" s="9"/>
     </row>
-    <row r="336" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9415,7 +9407,7 @@
       </c>
       <c r="T336" s="9"/>
     </row>
-    <row r="337" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9433,7 +9425,7 @@
       </c>
       <c r="T337" s="9"/>
     </row>
-    <row r="338" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9448,7 +9440,7 @@
       <c r="L338" s="5"/>
       <c r="T338" s="9"/>
     </row>
-    <row r="339" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A339" s="4" t="s">
         <v>153</v>
       </c>
@@ -9490,7 +9482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="340" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9514,7 +9506,7 @@
       </c>
       <c r="T340" s="9"/>
     </row>
-    <row r="341" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="341" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9538,7 +9530,7 @@
       </c>
       <c r="T341" s="9"/>
     </row>
-    <row r="342" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="342" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9562,7 +9554,7 @@
       </c>
       <c r="T342" s="9"/>
     </row>
-    <row r="343" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="343" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9586,7 +9578,7 @@
       </c>
       <c r="T343" s="9"/>
     </row>
-    <row r="344" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="344" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9610,7 +9602,7 @@
       </c>
       <c r="T344" s="9"/>
     </row>
-    <row r="345" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="345" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9634,7 +9626,7 @@
       </c>
       <c r="T345" s="9"/>
     </row>
-    <row r="346" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="346" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9658,7 +9650,7 @@
       </c>
       <c r="T346" s="9"/>
     </row>
-    <row r="347" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="347" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -9682,7 +9674,7 @@
       </c>
       <c r="T347" s="9"/>
     </row>
-    <row r="348" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9706,7 +9698,7 @@
       </c>
       <c r="T348" s="9"/>
     </row>
-    <row r="349" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9730,7 +9722,7 @@
       </c>
       <c r="T349" s="9"/>
     </row>
-    <row r="350" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="350" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9754,7 +9746,7 @@
       </c>
       <c r="T350" s="9"/>
     </row>
-    <row r="351" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="351" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9778,7 +9770,7 @@
       </c>
       <c r="T351" s="9"/>
     </row>
-    <row r="352" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="352" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9802,7 +9794,7 @@
       </c>
       <c r="T352" s="9"/>
     </row>
-    <row r="353" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9826,7 +9818,7 @@
       </c>
       <c r="T353" s="9"/>
     </row>
-    <row r="354" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="354" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9850,7 +9842,7 @@
       </c>
       <c r="T354" s="9"/>
     </row>
-    <row r="355" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9868,7 +9860,7 @@
       </c>
       <c r="T355" s="9"/>
     </row>
-    <row r="356" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9886,7 +9878,7 @@
       </c>
       <c r="T356" s="9"/>
     </row>
-    <row r="357" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9901,7 +9893,7 @@
       <c r="L357" s="5"/>
       <c r="T357" s="9"/>
     </row>
-    <row r="358" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A358" s="4" t="s">
         <v>158</v>
       </c>
@@ -9943,7 +9935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="359" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9967,7 +9959,7 @@
       </c>
       <c r="T359" s="9"/>
     </row>
-    <row r="360" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="360" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -9991,7 +9983,7 @@
       </c>
       <c r="T360" s="9"/>
     </row>
-    <row r="361" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="361" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -10015,7 +10007,7 @@
       </c>
       <c r="T361" s="9"/>
     </row>
-    <row r="362" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="362" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -10039,7 +10031,7 @@
       </c>
       <c r="T362" s="9"/>
     </row>
-    <row r="363" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="363" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -10063,7 +10055,7 @@
       </c>
       <c r="T363" s="9"/>
     </row>
-    <row r="364" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="364" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -10087,7 +10079,7 @@
       </c>
       <c r="T364" s="9"/>
     </row>
-    <row r="365" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="365" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -10111,7 +10103,7 @@
       </c>
       <c r="T365" s="9"/>
     </row>
-    <row r="366" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="366" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -10135,7 +10127,7 @@
       </c>
       <c r="T366" s="9"/>
     </row>
-    <row r="367" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -10159,7 +10151,7 @@
       </c>
       <c r="T367" s="9"/>
     </row>
-    <row r="368" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -10183,7 +10175,7 @@
       </c>
       <c r="T368" s="9"/>
     </row>
-    <row r="369" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="369" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -10207,7 +10199,7 @@
       </c>
       <c r="T369" s="9"/>
     </row>
-    <row r="370" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="370" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -10231,7 +10223,7 @@
       </c>
       <c r="T370" s="9"/>
     </row>
-    <row r="371" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="371" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -10255,7 +10247,7 @@
       </c>
       <c r="T371" s="9"/>
     </row>
-    <row r="372" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -10279,7 +10271,7 @@
       </c>
       <c r="T372" s="9"/>
     </row>
-    <row r="373" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="373" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -10303,7 +10295,7 @@
       </c>
       <c r="T373" s="9"/>
     </row>
-    <row r="374" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -10321,7 +10313,7 @@
       </c>
       <c r="T374" s="9"/>
     </row>
-    <row r="375" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -10339,7 +10331,7 @@
       </c>
       <c r="T375" s="9"/>
     </row>
-    <row r="376" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -10354,7 +10346,7 @@
       <c r="L376" s="5"/>
       <c r="T376" s="9"/>
     </row>
-    <row r="377" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A377" s="4" t="s">
         <v>163</v>
       </c>
@@ -10396,7 +10388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="378" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10420,7 +10412,7 @@
       </c>
       <c r="T378" s="9"/>
     </row>
-    <row r="379" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="379" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10444,7 +10436,7 @@
       </c>
       <c r="T379" s="9"/>
     </row>
-    <row r="380" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="380" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10468,7 +10460,7 @@
       </c>
       <c r="T380" s="9"/>
     </row>
-    <row r="381" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="381" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10492,7 +10484,7 @@
       </c>
       <c r="T381" s="9"/>
     </row>
-    <row r="382" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="382" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10516,7 +10508,7 @@
       </c>
       <c r="T382" s="9"/>
     </row>
-    <row r="383" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="383" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10540,7 +10532,7 @@
       </c>
       <c r="T383" s="9"/>
     </row>
-    <row r="384" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="384" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10564,7 +10556,7 @@
       </c>
       <c r="T384" s="9"/>
     </row>
-    <row r="385" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="385" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10588,7 +10580,7 @@
       </c>
       <c r="T385" s="9"/>
     </row>
-    <row r="386" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10612,7 +10604,7 @@
       </c>
       <c r="T386" s="9"/>
     </row>
-    <row r="387" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10636,7 +10628,7 @@
       </c>
       <c r="T387" s="9"/>
     </row>
-    <row r="388" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="388" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -10660,7 +10652,7 @@
       </c>
       <c r="T388" s="9"/>
     </row>
-    <row r="389" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="389" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10684,7 +10676,7 @@
       </c>
       <c r="T389" s="9"/>
     </row>
-    <row r="390" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="390" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10708,7 +10700,7 @@
       </c>
       <c r="T390" s="9"/>
     </row>
-    <row r="391" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10732,7 +10724,7 @@
       </c>
       <c r="T391" s="9"/>
     </row>
-    <row r="392" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="392" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10756,7 +10748,7 @@
       </c>
       <c r="T392" s="9"/>
     </row>
-    <row r="393" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10774,7 +10766,7 @@
       </c>
       <c r="T393" s="9"/>
     </row>
-    <row r="394" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10792,7 +10784,7 @@
       </c>
       <c r="T394" s="9"/>
     </row>
-    <row r="395" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10807,7 +10799,7 @@
       <c r="L395" s="5"/>
       <c r="T395" s="9"/>
     </row>
-    <row r="396" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A396" s="4" t="s">
         <v>167</v>
       </c>
@@ -10849,7 +10841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="397" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10873,7 +10865,7 @@
       </c>
       <c r="T397" s="9"/>
     </row>
-    <row r="398" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="398" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -10897,7 +10889,7 @@
       </c>
       <c r="T398" s="9"/>
     </row>
-    <row r="399" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="399" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -10921,7 +10913,7 @@
       </c>
       <c r="T399" s="9"/>
     </row>
-    <row r="400" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="400" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10945,7 +10937,7 @@
       </c>
       <c r="T400" s="9"/>
     </row>
-    <row r="401" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="401" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -10969,7 +10961,7 @@
       </c>
       <c r="T401" s="9"/>
     </row>
-    <row r="402" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="402" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -10993,7 +10985,7 @@
       </c>
       <c r="T402" s="9"/>
     </row>
-    <row r="403" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="403" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -11017,7 +11009,7 @@
       </c>
       <c r="T403" s="9"/>
     </row>
-    <row r="404" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="404" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -11041,7 +11033,7 @@
       </c>
       <c r="T404" s="9"/>
     </row>
-    <row r="405" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -11065,7 +11057,7 @@
       </c>
       <c r="T405" s="9"/>
     </row>
-    <row r="406" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -11089,7 +11081,7 @@
       </c>
       <c r="T406" s="9"/>
     </row>
-    <row r="407" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="407" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -11113,7 +11105,7 @@
       </c>
       <c r="T407" s="9"/>
     </row>
-    <row r="408" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="408" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -11137,7 +11129,7 @@
       </c>
       <c r="T408" s="9"/>
     </row>
-    <row r="409" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="409" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -11161,7 +11153,7 @@
       </c>
       <c r="T409" s="9"/>
     </row>
-    <row r="410" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -11185,7 +11177,7 @@
       </c>
       <c r="T410" s="9"/>
     </row>
-    <row r="411" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="411" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -11209,7 +11201,7 @@
       </c>
       <c r="T411" s="9"/>
     </row>
-    <row r="412" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -11227,7 +11219,7 @@
       </c>
       <c r="T412" s="9"/>
     </row>
-    <row r="413" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -11245,7 +11237,7 @@
       </c>
       <c r="T413" s="9"/>
     </row>
-    <row r="414" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -11260,7 +11252,7 @@
       <c r="L414" s="5"/>
       <c r="T414" s="9"/>
     </row>
-    <row r="415" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A415" s="4" t="s">
         <v>172</v>
       </c>
@@ -11302,7 +11294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="416" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -11326,7 +11318,7 @@
       </c>
       <c r="T416" s="9"/>
     </row>
-    <row r="417" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="417" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -11350,7 +11342,7 @@
       </c>
       <c r="T417" s="9"/>
     </row>
-    <row r="418" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="418" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -11374,7 +11366,7 @@
       </c>
       <c r="T418" s="9"/>
     </row>
-    <row r="419" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="419" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -11398,7 +11390,7 @@
       </c>
       <c r="T419" s="9"/>
     </row>
-    <row r="420" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="420" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -11422,7 +11414,7 @@
       </c>
       <c r="T420" s="9"/>
     </row>
-    <row r="421" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -11446,7 +11438,7 @@
       </c>
       <c r="T421" s="9"/>
     </row>
-    <row r="422" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="422" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11470,7 +11462,7 @@
       </c>
       <c r="T422" s="9"/>
     </row>
-    <row r="423" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="423" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11494,7 +11486,7 @@
       </c>
       <c r="T423" s="9"/>
     </row>
-    <row r="424" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="424" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11518,7 +11510,7 @@
       </c>
       <c r="T424" s="9"/>
     </row>
-    <row r="425" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="425" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11542,7 +11534,7 @@
       </c>
       <c r="T425" s="9"/>
     </row>
-    <row r="426" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="426" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11566,7 +11558,7 @@
       </c>
       <c r="T426" s="9"/>
     </row>
-    <row r="427" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11590,7 +11582,7 @@
       </c>
       <c r="T427" s="9"/>
     </row>
-    <row r="428" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11614,7 +11606,7 @@
       </c>
       <c r="T428" s="9"/>
     </row>
-    <row r="429" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="429" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -11638,7 +11630,7 @@
       </c>
       <c r="T429" s="9"/>
     </row>
-    <row r="430" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="430" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11662,7 +11654,7 @@
       </c>
       <c r="T430" s="9"/>
     </row>
-    <row r="431" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="431" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11686,7 +11678,7 @@
       </c>
       <c r="T431" s="9"/>
     </row>
-    <row r="432" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11710,7 +11702,7 @@
       </c>
       <c r="T432" s="9"/>
     </row>
-    <row r="433" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="433" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11734,7 +11726,7 @@
       </c>
       <c r="T433" s="9"/>
     </row>
-    <row r="434" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11752,7 +11744,7 @@
       </c>
       <c r="T434" s="9"/>
     </row>
-    <row r="435" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11770,7 +11762,7 @@
       </c>
       <c r="T435" s="9"/>
     </row>
-    <row r="436" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11785,7 +11777,7 @@
       <c r="L436" s="5"/>
       <c r="T436" s="9"/>
     </row>
-    <row r="437" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A437" s="4" t="s">
         <v>177</v>
       </c>
@@ -11827,7 +11819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="438" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -11851,7 +11843,7 @@
       </c>
       <c r="T438" s="9"/>
     </row>
-    <row r="439" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="439" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -11875,7 +11867,7 @@
       </c>
       <c r="T439" s="9"/>
     </row>
-    <row r="440" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="440" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -11899,7 +11891,7 @@
       </c>
       <c r="T440" s="9"/>
     </row>
-    <row r="441" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -11923,7 +11915,7 @@
       </c>
       <c r="T441" s="9"/>
     </row>
-    <row r="442" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="442" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -11947,7 +11939,7 @@
       </c>
       <c r="T442" s="9"/>
     </row>
-    <row r="443" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="443" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -11971,7 +11963,7 @@
       </c>
       <c r="T443" s="9"/>
     </row>
-    <row r="444" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="444" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -11995,7 +11987,7 @@
       </c>
       <c r="T444" s="9"/>
     </row>
-    <row r="445" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="445" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -12019,7 +12011,7 @@
       </c>
       <c r="T445" s="9"/>
     </row>
-    <row r="446" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -12043,7 +12035,7 @@
       </c>
       <c r="T446" s="9"/>
     </row>
-    <row r="447" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -12067,7 +12059,7 @@
       </c>
       <c r="T447" s="9"/>
     </row>
-    <row r="448" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="448" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -12091,7 +12083,7 @@
       </c>
       <c r="T448" s="9"/>
     </row>
-    <row r="449" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="449" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A449" s="4"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -12115,7 +12107,7 @@
       </c>
       <c r="T449" s="9"/>
     </row>
-    <row r="450" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="450" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A450" s="4"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -12139,7 +12131,7 @@
       </c>
       <c r="T450" s="9"/>
     </row>
-    <row r="451" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A451" s="4"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -12163,7 +12155,7 @@
       </c>
       <c r="T451" s="9"/>
     </row>
-    <row r="452" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="452" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A452" s="4"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -12187,7 +12179,7 @@
       </c>
       <c r="T452" s="9"/>
     </row>
-    <row r="453" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A453" s="4"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -12205,7 +12197,7 @@
       </c>
       <c r="T453" s="9"/>
     </row>
-    <row r="454" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A454" s="4"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -12223,7 +12215,7 @@
       </c>
       <c r="T454" s="9"/>
     </row>
-    <row r="455" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A455" s="4"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -12238,7 +12230,7 @@
       <c r="L455" s="5"/>
       <c r="T455" s="9"/>
     </row>
-    <row r="456" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A456" s="4" t="s">
         <v>183</v>
       </c>
@@ -12280,7 +12272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="457" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A457" s="4"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -12304,7 +12296,7 @@
       </c>
       <c r="T457" s="9"/>
     </row>
-    <row r="458" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="458" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A458" s="4"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -12328,7 +12320,7 @@
       </c>
       <c r="T458" s="9"/>
     </row>
-    <row r="459" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="459" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A459" s="4"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -12352,7 +12344,7 @@
       </c>
       <c r="T459" s="9"/>
     </row>
-    <row r="460" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A460" s="4"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -12376,7 +12368,7 @@
       </c>
       <c r="T460" s="9"/>
     </row>
-    <row r="461" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="461" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A461" s="4"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -12400,7 +12392,7 @@
       </c>
       <c r="T461" s="9"/>
     </row>
-    <row r="462" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="462" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A462" s="4"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -12424,7 +12416,7 @@
       </c>
       <c r="T462" s="9"/>
     </row>
-    <row r="463" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="463" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A463" s="4"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -12448,7 +12440,7 @@
       </c>
       <c r="T463" s="9"/>
     </row>
-    <row r="464" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="464" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A464" s="4"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -12472,7 +12464,7 @@
       </c>
       <c r="T464" s="9"/>
     </row>
-    <row r="465" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A465" s="4"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12496,7 +12488,7 @@
       </c>
       <c r="T465" s="9"/>
     </row>
-    <row r="466" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A466" s="4"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12520,7 +12512,7 @@
       </c>
       <c r="T466" s="9"/>
     </row>
-    <row r="467" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="467" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A467" s="4"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12544,7 +12536,7 @@
       </c>
       <c r="T467" s="9"/>
     </row>
-    <row r="468" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="468" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A468" s="4"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12568,7 +12560,7 @@
       </c>
       <c r="T468" s="9"/>
     </row>
-    <row r="469" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="469" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A469" s="4"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12592,7 +12584,7 @@
       </c>
       <c r="T469" s="9"/>
     </row>
-    <row r="470" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A470" s="4"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12616,7 +12608,7 @@
       </c>
       <c r="T470" s="9"/>
     </row>
-    <row r="471" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="471" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A471" s="4"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12640,7 +12632,7 @@
       </c>
       <c r="T471" s="9"/>
     </row>
-    <row r="472" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A472" s="4"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12658,7 +12650,7 @@
       </c>
       <c r="T472" s="9"/>
     </row>
-    <row r="473" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A473" s="4"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -12676,7 +12668,7 @@
       </c>
       <c r="T473" s="9"/>
     </row>
-    <row r="474" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A474" s="4"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12691,7 +12683,7 @@
       <c r="L474" s="5"/>
       <c r="T474" s="9"/>
     </row>
-    <row r="475" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A475" s="4" t="s">
         <v>188</v>
       </c>
@@ -12733,7 +12725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="476" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A476" s="4"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -12757,7 +12749,7 @@
       </c>
       <c r="T476" s="9"/>
     </row>
-    <row r="477" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="477" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A477" s="4"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -12781,7 +12773,7 @@
       </c>
       <c r="T477" s="9"/>
     </row>
-    <row r="478" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="478" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A478" s="4"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -12805,7 +12797,7 @@
       </c>
       <c r="T478" s="9"/>
     </row>
-    <row r="479" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A479" s="4"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -12829,7 +12821,7 @@
       </c>
       <c r="T479" s="9"/>
     </row>
-    <row r="480" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="480" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A480" s="4"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -12853,7 +12845,7 @@
       </c>
       <c r="T480" s="9"/>
     </row>
-    <row r="481" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="481" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A481" s="4"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -12877,7 +12869,7 @@
       </c>
       <c r="T481" s="9"/>
     </row>
-    <row r="482" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="482" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A482" s="4"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -12901,7 +12893,7 @@
       </c>
       <c r="T482" s="9"/>
     </row>
-    <row r="483" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="483" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A483" s="4"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -12925,7 +12917,7 @@
       </c>
       <c r="T483" s="9"/>
     </row>
-    <row r="484" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A484" s="4"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -12949,7 +12941,7 @@
       </c>
       <c r="T484" s="9"/>
     </row>
-    <row r="485" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A485" s="4"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -12973,7 +12965,7 @@
       </c>
       <c r="T485" s="9"/>
     </row>
-    <row r="486" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="486" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A486" s="4"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12997,7 +12989,7 @@
       </c>
       <c r="T486" s="9"/>
     </row>
-    <row r="487" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="487" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A487" s="4"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -13021,7 +13013,7 @@
       </c>
       <c r="T487" s="9"/>
     </row>
-    <row r="488" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="488" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A488" s="4"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -13045,7 +13037,7 @@
       </c>
       <c r="T488" s="9"/>
     </row>
-    <row r="489" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A489" s="4"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -13069,7 +13061,7 @@
       </c>
       <c r="T489" s="9"/>
     </row>
-    <row r="490" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="490" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -13093,7 +13085,7 @@
       </c>
       <c r="T490" s="9"/>
     </row>
-    <row r="491" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -13111,7 +13103,7 @@
       </c>
       <c r="T491" s="9"/>
     </row>
-    <row r="492" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -13129,7 +13121,7 @@
       </c>
       <c r="T492" s="9"/>
     </row>
-    <row r="493" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -13144,7 +13136,7 @@
       <c r="L493" s="5"/>
       <c r="T493" s="9"/>
     </row>
-    <row r="494" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A494" s="4" t="s">
         <v>193</v>
       </c>
@@ -13186,7 +13178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="495" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -13210,7 +13202,7 @@
       </c>
       <c r="T495" s="9"/>
     </row>
-    <row r="496" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="496" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -13234,7 +13226,7 @@
       </c>
       <c r="T496" s="9"/>
     </row>
-    <row r="497" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="497" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -13258,7 +13250,7 @@
       </c>
       <c r="T497" s="9"/>
     </row>
-    <row r="498" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="498" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -13282,7 +13274,7 @@
       </c>
       <c r="T498" s="9"/>
     </row>
-    <row r="499" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="499" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -13306,7 +13298,7 @@
       </c>
       <c r="T499" s="9"/>
     </row>
-    <row r="500" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -13330,7 +13322,7 @@
       </c>
       <c r="T500" s="9"/>
     </row>
-    <row r="501" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -13354,7 +13346,7 @@
       </c>
       <c r="T501" s="9"/>
     </row>
-    <row r="502" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="502" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -13378,7 +13370,7 @@
       </c>
       <c r="T502" s="9"/>
     </row>
-    <row r="503" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="503" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -13402,7 +13394,7 @@
       </c>
       <c r="T503" s="9"/>
     </row>
-    <row r="504" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="504" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -13426,7 +13418,7 @@
       </c>
       <c r="T504" s="9"/>
     </row>
-    <row r="505" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -13450,7 +13442,7 @@
       </c>
       <c r="T505" s="9"/>
     </row>
-    <row r="506" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="506" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -13474,7 +13466,7 @@
       </c>
       <c r="T506" s="9"/>
     </row>
-    <row r="507" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -13492,7 +13484,7 @@
       </c>
       <c r="T507" s="9"/>
     </row>
-    <row r="508" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -13510,7 +13502,7 @@
       </c>
       <c r="T508" s="9"/>
     </row>
-    <row r="509" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13525,7 +13517,7 @@
       <c r="L509" s="5"/>
       <c r="T509" s="9"/>
     </row>
-    <row r="510" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A510" s="4" t="s">
         <v>198</v>
       </c>
@@ -13567,7 +13559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="511" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A511" s="4"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -13591,7 +13583,7 @@
       </c>
       <c r="T511" s="9"/>
     </row>
-    <row r="512" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="512" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -13615,7 +13607,7 @@
       </c>
       <c r="T512" s="9"/>
     </row>
-    <row r="513" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="513" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A513" s="4"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -13639,7 +13631,7 @@
       </c>
       <c r="T513" s="9"/>
     </row>
-    <row r="514" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="514" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -13663,7 +13655,7 @@
       </c>
       <c r="T514" s="9"/>
     </row>
-    <row r="515" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="515" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A515" s="4"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -13687,7 +13679,7 @@
       </c>
       <c r="T515" s="9"/>
     </row>
-    <row r="516" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -13711,7 +13703,7 @@
       </c>
       <c r="T516" s="9"/>
     </row>
-    <row r="517" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A517" s="4"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -13735,7 +13727,7 @@
       </c>
       <c r="T517" s="9"/>
     </row>
-    <row r="518" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="518" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -13759,7 +13751,7 @@
       </c>
       <c r="T518" s="9"/>
     </row>
-    <row r="519" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="519" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A519" s="4"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -13783,7 +13775,7 @@
       </c>
       <c r="T519" s="9"/>
     </row>
-    <row r="520" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="520" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -13807,7 +13799,7 @@
       </c>
       <c r="T520" s="9"/>
     </row>
-    <row r="521" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -13831,7 +13823,7 @@
       </c>
       <c r="T521" s="9"/>
     </row>
-    <row r="522" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="522" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -13855,7 +13847,7 @@
       </c>
       <c r="T522" s="9"/>
     </row>
-    <row r="523" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A523" s="4"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -13873,7 +13865,7 @@
       </c>
       <c r="T523" s="9"/>
     </row>
-    <row r="524" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -13891,7 +13883,7 @@
       </c>
       <c r="T524" s="9"/>
     </row>
-    <row r="525" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A525" s="4"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -13906,7 +13898,7 @@
       <c r="L525" s="5"/>
       <c r="T525" s="9"/>
     </row>
-    <row r="526" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A526" s="4" t="s">
         <v>98</v>
       </c>
@@ -13946,7 +13938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="527" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A527" s="4"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -13970,7 +13962,7 @@
       </c>
       <c r="T527" s="9"/>
     </row>
-    <row r="528" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="528" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -13994,7 +13986,7 @@
       </c>
       <c r="T528" s="9"/>
     </row>
-    <row r="529" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="529" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A529" s="4"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -14018,7 +14010,7 @@
       </c>
       <c r="T529" s="9"/>
     </row>
-    <row r="530" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="530" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A530" s="4"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -14042,7 +14034,7 @@
       </c>
       <c r="T530" s="9"/>
     </row>
-    <row r="531" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="531" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A531" s="4"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -14066,7 +14058,7 @@
       </c>
       <c r="T531" s="9"/>
     </row>
-    <row r="532" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A532" s="4"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -14090,7 +14082,7 @@
       </c>
       <c r="T532" s="9"/>
     </row>
-    <row r="533" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="533" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A533" s="4"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -14114,7 +14106,7 @@
       </c>
       <c r="T533" s="9"/>
     </row>
-    <row r="534" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="534" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A534" s="4"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -14138,7 +14130,7 @@
       </c>
       <c r="T534" s="9"/>
     </row>
-    <row r="535" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="535" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A535" s="4"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -14162,7 +14154,7 @@
       </c>
       <c r="T535" s="9"/>
     </row>
-    <row r="536" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="536" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A536" s="4"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -14186,7 +14178,7 @@
       </c>
       <c r="T536" s="9"/>
     </row>
-    <row r="537" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="537" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A537" s="4"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -14210,7 +14202,7 @@
       </c>
       <c r="T537" s="9"/>
     </row>
-    <row r="538" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A538" s="4"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -14234,7 +14226,7 @@
       </c>
       <c r="T538" s="9"/>
     </row>
-    <row r="539" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -14258,7 +14250,7 @@
       </c>
       <c r="T539" s="9"/>
     </row>
-    <row r="540" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="540" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A540" s="4"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -14282,7 +14274,7 @@
       </c>
       <c r="T540" s="9"/>
     </row>
-    <row r="541" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="541" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -14306,7 +14298,7 @@
       </c>
       <c r="T541" s="9"/>
     </row>
-    <row r="542" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="542" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A542" s="4"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -14330,7 +14322,7 @@
       </c>
       <c r="T542" s="9"/>
     </row>
-    <row r="543" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -14354,7 +14346,7 @@
       </c>
       <c r="T543" s="9"/>
     </row>
-    <row r="544" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="544" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A544" s="4"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -14378,7 +14370,7 @@
       </c>
       <c r="T544" s="9"/>
     </row>
-    <row r="545" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A545" s="4"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -14396,7 +14388,7 @@
       </c>
       <c r="T545" s="9"/>
     </row>
-    <row r="546" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A546" s="4"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -14414,7 +14406,7 @@
       </c>
       <c r="T546" s="9"/>
     </row>
-    <row r="547" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A547" s="4"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -14429,7 +14421,7 @@
       <c r="L547" s="5"/>
       <c r="T547" s="9"/>
     </row>
-    <row r="548" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A548" s="4" t="s">
         <v>204</v>
       </c>
@@ -14471,7 +14463,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="549" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A549" s="4"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -14495,7 +14487,7 @@
       </c>
       <c r="T549" s="9"/>
     </row>
-    <row r="550" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="550" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -14519,7 +14511,7 @@
       </c>
       <c r="T550" s="9"/>
     </row>
-    <row r="551" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="551" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A551" s="4"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -14543,7 +14535,7 @@
       </c>
       <c r="T551" s="9"/>
     </row>
-    <row r="552" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="552" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A552" s="4"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -14567,7 +14559,7 @@
       </c>
       <c r="T552" s="9"/>
     </row>
-    <row r="553" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="553" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A553" s="4"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -14591,7 +14583,7 @@
       </c>
       <c r="T553" s="9"/>
     </row>
-    <row r="554" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A554" s="4"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -14615,7 +14607,7 @@
       </c>
       <c r="T554" s="9"/>
     </row>
-    <row r="555" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="555" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A555" s="4"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -14639,7 +14631,7 @@
       </c>
       <c r="T555" s="9"/>
     </row>
-    <row r="556" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="556" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A556" s="4"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -14663,7 +14655,7 @@
       </c>
       <c r="T556" s="9"/>
     </row>
-    <row r="557" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="557" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -14687,7 +14679,7 @@
       </c>
       <c r="T557" s="9"/>
     </row>
-    <row r="558" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="558" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A558" s="4"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -14711,7 +14703,7 @@
       </c>
       <c r="T558" s="9"/>
     </row>
-    <row r="559" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="559" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A559" s="4"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -14735,7 +14727,7 @@
       </c>
       <c r="T559" s="9"/>
     </row>
-    <row r="560" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A560" s="4"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -14759,7 +14751,7 @@
       </c>
       <c r="T560" s="9"/>
     </row>
-    <row r="561" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A561" s="4"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -14783,7 +14775,7 @@
       </c>
       <c r="T561" s="9"/>
     </row>
-    <row r="562" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="562" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A562" s="4"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -14807,7 +14799,7 @@
       </c>
       <c r="T562" s="9"/>
     </row>
-    <row r="563" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="563" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -14831,7 +14823,7 @@
       </c>
       <c r="T563" s="9"/>
     </row>
-    <row r="564" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="564" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -14855,7 +14847,7 @@
       </c>
       <c r="T564" s="9"/>
     </row>
-    <row r="565" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A565" s="4"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -14879,7 +14871,7 @@
       </c>
       <c r="T565" s="9"/>
     </row>
-    <row r="566" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="566" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A566" s="4"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -14903,7 +14895,7 @@
       </c>
       <c r="T566" s="9"/>
     </row>
-    <row r="567" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A567" s="4"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -14921,7 +14913,7 @@
       </c>
       <c r="T567" s="9"/>
     </row>
-    <row r="568" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A568" s="4"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -14939,7 +14931,7 @@
       </c>
       <c r="T568" s="9"/>
     </row>
-    <row r="569" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A569" s="4"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -14954,7 +14946,7 @@
       <c r="L569" s="5"/>
       <c r="T569" s="9"/>
     </row>
-    <row r="570" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A570" s="4" t="s">
         <v>208</v>
       </c>
@@ -14996,7 +14988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="571" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A571" s="4"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -15020,7 +15012,7 @@
       </c>
       <c r="T571" s="9"/>
     </row>
-    <row r="572" customFormat="false" ht="51.55" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="572" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A572" s="4"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -15044,7 +15036,7 @@
       </c>
       <c r="T572" s="9"/>
     </row>
-    <row r="573" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="573" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A573" s="4"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -15068,7 +15060,7 @@
       </c>
       <c r="T573" s="9"/>
     </row>
-    <row r="574" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="574" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A574" s="4"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -15092,7 +15084,7 @@
       </c>
       <c r="T574" s="9"/>
     </row>
-    <row r="575" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="575" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -15116,7 +15108,7 @@
       </c>
       <c r="T575" s="9"/>
     </row>
-    <row r="576" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A576" s="4"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -15140,7 +15132,7 @@
       </c>
       <c r="T576" s="9"/>
     </row>
-    <row r="577" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="577" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A577" s="4"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -15164,7 +15156,7 @@
       </c>
       <c r="T577" s="9"/>
     </row>
-    <row r="578" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="578" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A578" s="4"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -15188,7 +15180,7 @@
       </c>
       <c r="T578" s="9"/>
     </row>
-    <row r="579" customFormat="false" ht="60.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="579" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A579" s="4"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -15212,7 +15204,7 @@
       </c>
       <c r="T579" s="9"/>
     </row>
-    <row r="580" customFormat="false" ht="42.35" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="580" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A580" s="4"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -15236,7 +15228,7 @@
       </c>
       <c r="T580" s="9"/>
     </row>
-    <row r="581" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="581" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A581" s="4"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -15260,7 +15252,7 @@
       </c>
       <c r="T581" s="9"/>
     </row>
-    <row r="582" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A582" s="4"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -15284,7 +15276,7 @@
       </c>
       <c r="T582" s="9"/>
     </row>
-    <row r="583" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A583" s="4"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -15308,7 +15300,7 @@
       </c>
       <c r="T583" s="9"/>
     </row>
-    <row r="584" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="584" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A584" s="4"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -15332,7 +15324,7 @@
       </c>
       <c r="T584" s="9"/>
     </row>
-    <row r="585" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="585" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A585" s="4"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -15356,7 +15348,7 @@
       </c>
       <c r="T585" s="9"/>
     </row>
-    <row r="586" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="586" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A586" s="4"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -15380,7 +15372,7 @@
       </c>
       <c r="T586" s="9"/>
     </row>
-    <row r="587" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A587" s="4"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -15404,7 +15396,7 @@
       </c>
       <c r="T587" s="9"/>
     </row>
-    <row r="588" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="588" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A588" s="4"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -15428,7 +15420,7 @@
       </c>
       <c r="T588" s="9"/>
     </row>
-    <row r="589" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A589" s="4"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -15446,7 +15438,7 @@
       </c>
       <c r="T589" s="9"/>
     </row>
-    <row r="590" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A590" s="4"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -15464,7 +15456,7 @@
       </c>
       <c r="T590" s="9"/>
     </row>
-    <row r="591" customFormat="false" ht="5.65" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A591" s="4"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -15479,7 +15471,7 @@
       <c r="L591" s="5"/>
       <c r="T591" s="9"/>
     </row>
-    <row r="592" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="13"/>
       <c r="B592" s="14"/>
       <c r="C592" s="14"/>
@@ -15502,11 +15494,10 @@
       <c r="T592" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="400">
+  <mergeCells count="399">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
@@ -16688,13 +16679,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73D6E503-AC89-4A33-A0DC-6950435B6AF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3986C8-498C-4613-9C03-424EDC87D2AD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87481A24-C4FA-447C-907C-0C9149FB6B91}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FAC98-1E4E-4760-959E-B63BBC362540}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657782A9-19DF-4B81-A98B-CE4B05D0F4C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4CA811A-114D-48FB-8927-5464C9D27C68}"/>
 </file>